--- a/2-ExcelDocuments/arabic_letters_with_diacritics.xlsx
+++ b/2-ExcelDocuments/arabic_letters_with_diacritics.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18201"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mohamed Magdy\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repos\MST\MST\2-ExcelDocuments\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481" uniqueCount="480">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="451">
   <si>
     <t>id</t>
   </si>
@@ -840,93 +840,6 @@
   </si>
   <si>
     <t>أْ</t>
-  </si>
-  <si>
-    <t>بّ</t>
-  </si>
-  <si>
-    <t>تّ</t>
-  </si>
-  <si>
-    <t>ثّ</t>
-  </si>
-  <si>
-    <t>جّ</t>
-  </si>
-  <si>
-    <t>حّ</t>
-  </si>
-  <si>
-    <t>خّ</t>
-  </si>
-  <si>
-    <t>دّ</t>
-  </si>
-  <si>
-    <t>ذّ</t>
-  </si>
-  <si>
-    <t>رّ</t>
-  </si>
-  <si>
-    <t>زّ</t>
-  </si>
-  <si>
-    <t>سّ</t>
-  </si>
-  <si>
-    <t>شّ</t>
-  </si>
-  <si>
-    <t>صّ</t>
-  </si>
-  <si>
-    <t>ضّ</t>
-  </si>
-  <si>
-    <t>طّ</t>
-  </si>
-  <si>
-    <t>ظّ</t>
-  </si>
-  <si>
-    <t>عّ</t>
-  </si>
-  <si>
-    <t>غّ</t>
-  </si>
-  <si>
-    <t>فّ</t>
-  </si>
-  <si>
-    <t>قّ</t>
-  </si>
-  <si>
-    <t>كّ</t>
-  </si>
-  <si>
-    <t>لّ</t>
-  </si>
-  <si>
-    <t>مّ</t>
-  </si>
-  <si>
-    <t>نّ</t>
-  </si>
-  <si>
-    <t>هّ</t>
-  </si>
-  <si>
-    <t>وّ</t>
-  </si>
-  <si>
-    <t>ؤّ</t>
-  </si>
-  <si>
-    <t>يّ</t>
-  </si>
-  <si>
-    <t>ىّ</t>
   </si>
   <si>
     <t>بَّ</t>
@@ -1479,18 +1392,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -1510,12 +1417,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1830,10 +1735,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B480"/>
+  <dimension ref="A1:B451"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4001,7 +3906,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:2" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A271">
         <v>270</v>
       </c>
@@ -4149,7 +4054,7 @@
       <c r="A289">
         <v>288</v>
       </c>
-      <c r="B289" t="s">
+      <c r="B289" s="1" t="s">
         <v>289</v>
       </c>
     </row>
@@ -4221,7 +4126,7 @@
       <c r="A298">
         <v>297</v>
       </c>
-      <c r="B298" s="1" t="s">
+      <c r="B298" t="s">
         <v>298</v>
       </c>
     </row>
@@ -4237,7 +4142,7 @@
       <c r="A300">
         <v>299</v>
       </c>
-      <c r="B300" t="s">
+      <c r="B300" s="1" t="s">
         <v>300</v>
       </c>
     </row>
@@ -4453,7 +4358,7 @@
       <c r="A327">
         <v>326</v>
       </c>
-      <c r="B327" t="s">
+      <c r="B327" s="1" t="s">
         <v>327</v>
       </c>
     </row>
@@ -4845,7 +4750,7 @@
       <c r="A376">
         <v>375</v>
       </c>
-      <c r="B376" s="1" t="s">
+      <c r="B376" t="s">
         <v>376</v>
       </c>
     </row>
@@ -4853,7 +4758,7 @@
       <c r="A377">
         <v>376</v>
       </c>
-      <c r="B377" s="1" t="s">
+      <c r="B377" t="s">
         <v>377</v>
       </c>
     </row>
@@ -4909,7 +4814,7 @@
       <c r="A384">
         <v>383</v>
       </c>
-      <c r="B384" s="1" t="s">
+      <c r="B384" t="s">
         <v>384</v>
       </c>
     </row>
@@ -5077,7 +4982,7 @@
       <c r="A405">
         <v>404</v>
       </c>
-      <c r="B405" t="s">
+      <c r="B405" s="1" t="s">
         <v>405</v>
       </c>
     </row>
@@ -5141,7 +5046,7 @@
       <c r="A413">
         <v>412</v>
       </c>
-      <c r="B413" t="s">
+      <c r="B413" s="1" t="s">
         <v>413</v>
       </c>
     </row>
@@ -5158,7 +5063,7 @@
         <v>414</v>
       </c>
       <c r="B415" s="1" t="s">
-        <v>415</v>
+        <v>233</v>
       </c>
     </row>
     <row r="416" spans="1:2" x14ac:dyDescent="0.3">
@@ -5166,7 +5071,7 @@
         <v>415</v>
       </c>
       <c r="B416" s="1" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="417" spans="1:2" x14ac:dyDescent="0.3">
@@ -5174,7 +5079,7 @@
         <v>416</v>
       </c>
       <c r="B417" s="1" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="418" spans="1:2" x14ac:dyDescent="0.3">
@@ -5182,7 +5087,7 @@
         <v>417</v>
       </c>
       <c r="B418" s="1" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="419" spans="1:2" x14ac:dyDescent="0.3">
@@ -5190,7 +5095,7 @@
         <v>418</v>
       </c>
       <c r="B419" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="420" spans="1:2" x14ac:dyDescent="0.3">
@@ -5198,7 +5103,7 @@
         <v>419</v>
       </c>
       <c r="B420" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="421" spans="1:2" x14ac:dyDescent="0.3">
@@ -5206,7 +5111,7 @@
         <v>420</v>
       </c>
       <c r="B421" s="1" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="422" spans="1:2" x14ac:dyDescent="0.3">
@@ -5214,7 +5119,7 @@
         <v>421</v>
       </c>
       <c r="B422" s="1" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="423" spans="1:2" x14ac:dyDescent="0.3">
@@ -5222,7 +5127,7 @@
         <v>422</v>
       </c>
       <c r="B423" s="1" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="424" spans="1:2" x14ac:dyDescent="0.3">
@@ -5230,7 +5135,7 @@
         <v>423</v>
       </c>
       <c r="B424" s="1" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="425" spans="1:2" x14ac:dyDescent="0.3">
@@ -5238,7 +5143,7 @@
         <v>424</v>
       </c>
       <c r="B425" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="426" spans="1:2" x14ac:dyDescent="0.3">
@@ -5246,7 +5151,7 @@
         <v>425</v>
       </c>
       <c r="B426" s="1" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="427" spans="1:2" x14ac:dyDescent="0.3">
@@ -5254,7 +5159,7 @@
         <v>426</v>
       </c>
       <c r="B427" s="1" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="428" spans="1:2" x14ac:dyDescent="0.3">
@@ -5262,7 +5167,7 @@
         <v>427</v>
       </c>
       <c r="B428" s="1" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="429" spans="1:2" x14ac:dyDescent="0.3">
@@ -5270,7 +5175,7 @@
         <v>428</v>
       </c>
       <c r="B429" s="1" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="430" spans="1:2" x14ac:dyDescent="0.3">
@@ -5278,7 +5183,7 @@
         <v>429</v>
       </c>
       <c r="B430" s="1" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="431" spans="1:2" x14ac:dyDescent="0.3">
@@ -5286,7 +5191,7 @@
         <v>430</v>
       </c>
       <c r="B431" s="1" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="432" spans="1:2" x14ac:dyDescent="0.3">
@@ -5294,7 +5199,7 @@
         <v>431</v>
       </c>
       <c r="B432" s="1" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="433" spans="1:2" x14ac:dyDescent="0.3">
@@ -5302,7 +5207,7 @@
         <v>432</v>
       </c>
       <c r="B433" s="1" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="434" spans="1:2" x14ac:dyDescent="0.3">
@@ -5310,7 +5215,7 @@
         <v>433</v>
       </c>
       <c r="B434" s="1" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="435" spans="1:2" x14ac:dyDescent="0.3">
@@ -5318,15 +5223,15 @@
         <v>434</v>
       </c>
       <c r="B435" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="436" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A436">
         <v>435</v>
       </c>
-      <c r="B436" s="1" t="s">
-        <v>436</v>
+      <c r="B436" t="s">
+        <v>435</v>
       </c>
     </row>
     <row r="437" spans="1:2" x14ac:dyDescent="0.3">
@@ -5334,7 +5239,7 @@
         <v>436</v>
       </c>
       <c r="B437" s="1" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="438" spans="1:2" x14ac:dyDescent="0.3">
@@ -5342,7 +5247,7 @@
         <v>437</v>
       </c>
       <c r="B438" s="1" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="439" spans="1:2" x14ac:dyDescent="0.3">
@@ -5350,7 +5255,7 @@
         <v>438</v>
       </c>
       <c r="B439" s="1" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="440" spans="1:2" x14ac:dyDescent="0.3">
@@ -5358,7 +5263,7 @@
         <v>439</v>
       </c>
       <c r="B440" s="1" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="441" spans="1:2" x14ac:dyDescent="0.3">
@@ -5366,15 +5271,15 @@
         <v>440</v>
       </c>
       <c r="B441" s="1" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="442" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A442">
         <v>441</v>
       </c>
-      <c r="B442" s="1" t="s">
-        <v>442</v>
+      <c r="B442" t="s">
+        <v>441</v>
       </c>
     </row>
     <row r="443" spans="1:2" x14ac:dyDescent="0.3">
@@ -5382,15 +5287,15 @@
         <v>442</v>
       </c>
       <c r="B443" s="1" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="444" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A444">
         <v>443</v>
       </c>
-      <c r="B444" s="1" t="s">
-        <v>233</v>
+      <c r="B444" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="445" spans="1:2" x14ac:dyDescent="0.3">
@@ -5405,7 +5310,7 @@
       <c r="A446">
         <v>445</v>
       </c>
-      <c r="B446" s="1" t="s">
+      <c r="B446" s="3" t="s">
         <v>445</v>
       </c>
     </row>
@@ -5445,240 +5350,8 @@
       <c r="A451">
         <v>450</v>
       </c>
-      <c r="B451" s="1" t="s">
+      <c r="B451" s="2" t="s">
         <v>450</v>
-      </c>
-    </row>
-    <row r="452" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A452">
-        <v>451</v>
-      </c>
-      <c r="B452" s="1" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="453" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A453">
-        <v>452</v>
-      </c>
-      <c r="B453" s="1" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="454" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A454">
-        <v>453</v>
-      </c>
-      <c r="B454" s="1" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="455" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A455">
-        <v>454</v>
-      </c>
-      <c r="B455" s="1" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="456" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A456">
-        <v>455</v>
-      </c>
-      <c r="B456" s="1" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="457" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A457">
-        <v>456</v>
-      </c>
-      <c r="B457" s="1" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="458" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A458">
-        <v>457</v>
-      </c>
-      <c r="B458" s="1" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="459" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A459">
-        <v>458</v>
-      </c>
-      <c r="B459" s="1" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="460" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A460">
-        <v>459</v>
-      </c>
-      <c r="B460" s="1" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="461" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A461">
-        <v>460</v>
-      </c>
-      <c r="B461" s="1" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="462" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A462">
-        <v>461</v>
-      </c>
-      <c r="B462" s="1" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="463" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A463">
-        <v>462</v>
-      </c>
-      <c r="B463" s="1" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="464" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A464">
-        <v>463</v>
-      </c>
-      <c r="B464" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="465" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A465">
-        <v>464</v>
-      </c>
-      <c r="B465" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="466" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A466">
-        <v>465</v>
-      </c>
-      <c r="B466" s="1" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="467" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A467">
-        <v>466</v>
-      </c>
-      <c r="B467" s="1" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="468" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A468">
-        <v>467</v>
-      </c>
-      <c r="B468" s="1" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="469" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A469">
-        <v>468</v>
-      </c>
-      <c r="B469" s="1" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="470" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A470">
-        <v>469</v>
-      </c>
-      <c r="B470" s="1" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="471" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A471">
-        <v>470</v>
-      </c>
-      <c r="B471" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="472" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A472">
-        <v>471</v>
-      </c>
-      <c r="B472" s="1" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="473" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A473">
-        <v>472</v>
-      </c>
-      <c r="B473" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="474" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A474">
-        <v>473</v>
-      </c>
-      <c r="B474" s="1" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="475" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A475">
-        <v>474</v>
-      </c>
-      <c r="B475" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="476" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A476">
-        <v>475</v>
-      </c>
-      <c r="B476" s="1" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="477" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A477">
-        <v>476</v>
-      </c>
-      <c r="B477" s="2" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="478" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A478">
-        <v>477</v>
-      </c>
-      <c r="B478" s="2" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="479" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A479">
-        <v>478</v>
-      </c>
-      <c r="B479" s="3" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="480" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A480">
-        <v>479</v>
-      </c>
-      <c r="B480" s="3" t="s">
-        <v>479</v>
       </c>
     </row>
   </sheetData>
